--- a/output/fit_clients/fit_round_285.xlsx
+++ b/output/fit_clients/fit_round_285.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2044552277.679013</v>
+        <v>2014781067.490192</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07348710161178039</v>
+        <v>0.1066105788126262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02813437321090391</v>
+        <v>0.04253934659485942</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1022276140.441834</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1695174618.070229</v>
+        <v>2384020481.041859</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1364155545936374</v>
+        <v>0.1445258951876668</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04056169503747608</v>
+        <v>0.03998775802812821</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>847587301.885106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3743922839.412912</v>
+        <v>4983666499.408914</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1532417484100311</v>
+        <v>0.1325963316092395</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02554871793940528</v>
+        <v>0.02650532901372398</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>103</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1871961415.745495</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2701562073.668727</v>
+        <v>3474746511.806096</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08170592624546801</v>
+        <v>0.09502567331833081</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04021893941567131</v>
+        <v>0.0427927731495179</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1350781126.448823</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1927983587.795545</v>
+        <v>2100301427.43002</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1302042354566674</v>
+        <v>0.1314482942577628</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04195764262720835</v>
+        <v>0.03574772558850432</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>53</v>
-      </c>
-      <c r="J6" t="n">
-        <v>963991831.2853837</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1937471474.481525</v>
+        <v>2118466446.66459</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06905341974200824</v>
+        <v>0.07144324398522556</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0433209022225431</v>
+        <v>0.0375873937049163</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>89</v>
-      </c>
-      <c r="J7" t="n">
-        <v>968735804.4220196</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2518249546.353885</v>
+        <v>2494346333.832736</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1340961933525141</v>
+        <v>0.2155046108497116</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02839911039004697</v>
+        <v>0.02818487513308161</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>91</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1259124781.437073</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1898437170.962877</v>
+        <v>1840135119.125724</v>
       </c>
       <c r="F9" t="n">
-        <v>0.154441285377572</v>
+        <v>0.1904321201819458</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02505484784040363</v>
+        <v>0.03480757052033649</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>949218626.1870259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5217367480.516288</v>
+        <v>3820368324.662836</v>
       </c>
       <c r="F10" t="n">
-        <v>0.167954697279483</v>
+        <v>0.1782471426255891</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0363970238964669</v>
+        <v>0.0452035168888615</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>120</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2608683856.434122</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3833427834.225035</v>
+        <v>2642496004.308772</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1730160311537584</v>
+        <v>0.119405387868501</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03543185170623628</v>
+        <v>0.03137701855428295</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>118</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1916713918.215927</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2913341526.825577</v>
+        <v>3201026295.169457</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1517159875986192</v>
+        <v>0.1935983523938434</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03822986627425837</v>
+        <v>0.03531208789612548</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>97</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1456670773.470129</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5341091840.363749</v>
+        <v>5222200436.897394</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08173437088667487</v>
+        <v>0.08317529167570367</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02798447975148296</v>
+        <v>0.02949286664170608</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>96</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2670545906.997953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2496128202.583128</v>
+        <v>2954022704.926449</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1556896941490826</v>
+        <v>0.1487795243154331</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03178584140349142</v>
+        <v>0.03646660882760803</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1248064172.211472</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1585048193.288824</v>
+        <v>1242415127.122882</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1027569356405665</v>
+        <v>0.08453822095158656</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03592576461865803</v>
+        <v>0.0402626595484361</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>792524201.4260459</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2738511126.328338</v>
+        <v>2218916262.711004</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1049363087949712</v>
+        <v>0.07136788714197859</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03878069131892754</v>
+        <v>0.0479203018100013</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>55</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1369255572.671527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4308836989.916104</v>
+        <v>4669136030.315019</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1668794685312213</v>
+        <v>0.1545958522360003</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04560762977147736</v>
+        <v>0.04700141094844395</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>83</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2154418514.282266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2424334532.108089</v>
+        <v>3980817590.905652</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1537833313360155</v>
+        <v>0.1137066290444099</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02307381604178572</v>
+        <v>0.02466312979343988</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>93</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1212167338.042632</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1127844960.832925</v>
+        <v>1344684711.607754</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1173368786901233</v>
+        <v>0.1212411397346555</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02687105549441757</v>
+        <v>0.02195685230128178</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>563922540.7513438</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2663001747.339683</v>
+        <v>2691683225.801003</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1412779349726282</v>
+        <v>0.1304508929352876</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02345634812587467</v>
+        <v>0.02539671580050093</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1331500829.380894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2389143538.059238</v>
+        <v>1873926848.642105</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09408679051298582</v>
+        <v>0.1016364751531594</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04240905142424783</v>
+        <v>0.03385121831082526</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1194571767.757897</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2491601769.169511</v>
+        <v>2896085839.822507</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09006286632242862</v>
+        <v>0.1242209444946664</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05560537622566354</v>
+        <v>0.05156818965194961</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>78</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1245800976.555894</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1225628157.448312</v>
+        <v>976734174.0939296</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1298221595619503</v>
+        <v>0.1451763240756013</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04730690741048388</v>
+        <v>0.05143689032769677</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>612814110.8840636</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3016169942.565751</v>
+        <v>3326058008.708161</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1464928909915004</v>
+        <v>0.1314117690268055</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03344448568983115</v>
+        <v>0.02783932179678286</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>83</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1508085005.441494</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1345551775.577175</v>
+        <v>1276190458.706662</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07942656666508441</v>
+        <v>0.08086283791540085</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02388421532399154</v>
+        <v>0.03034331579452572</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>672775872.2609009</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>980908847.569212</v>
+        <v>1417091649.045588</v>
       </c>
       <c r="F26" t="n">
-        <v>0.124514345307503</v>
+        <v>0.07869958996819036</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03150836999192617</v>
+        <v>0.03577146437141443</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>490454391.2466395</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3134796616.957901</v>
+        <v>2985552260.232561</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1529541091197499</v>
+        <v>0.134421263951569</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02676961779486759</v>
+        <v>0.0178741487348818</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1567398361.580749</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3639478975.488647</v>
+        <v>3816869249.515412</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1058542077054593</v>
+        <v>0.1261874214598648</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03520589345730095</v>
+        <v>0.03741279582749418</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>92</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1819739554.479031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5545922913.046704</v>
+        <v>3774932092.680515</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1057408257663541</v>
+        <v>0.1215112133974838</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03528060085982301</v>
+        <v>0.03908267329056542</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>126</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2772961366.300687</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1906145411.82412</v>
+        <v>2076559064.434323</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1378317070883456</v>
+        <v>0.1399878813714049</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0298212601881618</v>
+        <v>0.03235317985829211</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>953072732.664838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1125053780.081972</v>
+        <v>1375211348.798101</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08854052180286942</v>
+        <v>0.07261110001354704</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04658908396390048</v>
+        <v>0.04365204985256951</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>562526859.1487132</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1721541247.87164</v>
+        <v>1266782174.450795</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09329917887330544</v>
+        <v>0.08498914337721535</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02455649108149325</v>
+        <v>0.03182122795361263</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>860770738.1675307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2658831583.091568</v>
+        <v>2469543920.382474</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1680266067052216</v>
+        <v>0.156614228004649</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04700180952572859</v>
+        <v>0.0381964726908554</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1329415816.229911</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1017047323.054006</v>
+        <v>1302080100.85419</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1090959832444672</v>
+        <v>0.1078319511357452</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02465093548973687</v>
+        <v>0.02046228484925003</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>508523696.5530564</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1074233237.456399</v>
+        <v>1036661746.839575</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1059628526451682</v>
+        <v>0.1020291686571173</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03252754481513864</v>
+        <v>0.03546678604395167</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>537116621.0225712</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3155157081.621983</v>
+        <v>3207183882.825477</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1206875009854637</v>
+        <v>0.1626194120790494</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02809537270043612</v>
+        <v>0.02342312399202769</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>73</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1577578510.312335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2894525568.18089</v>
+        <v>2027967876.85335</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07831147975644201</v>
+        <v>0.1017754481573314</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04213577719906499</v>
+        <v>0.04103960073259266</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>75</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1447262934.42571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1355057922.762463</v>
+        <v>1717165446.716607</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07429773212424574</v>
+        <v>0.1220559254076594</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02522305634136619</v>
+        <v>0.0328950698880072</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>677529031.111104</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1379649747.497048</v>
+        <v>2171883393.469644</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1684078743900878</v>
+        <v>0.1173627336720473</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02118897312429225</v>
+        <v>0.02929422438369673</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>689824962.4482098</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1656779027.011485</v>
+        <v>1546629875.144651</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1441285122655451</v>
+        <v>0.1483144169216345</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04640582307497135</v>
+        <v>0.05929341853001679</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>828389440.4618059</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2426262148.104743</v>
+        <v>1963168834.196531</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1470695885114077</v>
+        <v>0.1281126803211618</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03980687003382333</v>
+        <v>0.04238413085404687</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>69</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1213131106.513371</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3289066748.363369</v>
+        <v>2968619112.18223</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0767892275497455</v>
+        <v>0.1249987292734373</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03336972022885536</v>
+        <v>0.04642414335282183</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1644533354.520867</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2906514113.701862</v>
+        <v>2836358739.426722</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1936174544019679</v>
+        <v>0.1767721903757892</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01791947888964106</v>
+        <v>0.01839104978106443</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>103</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1453257064.634597</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2067696164.509875</v>
+        <v>2357534457.839735</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06341877144324819</v>
+        <v>0.07422340927825347</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03542053712121326</v>
+        <v>0.03347309599759675</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1033848202.08915</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1735360089.697255</v>
+        <v>1876464772.40812</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1771900582361285</v>
+        <v>0.1658138708739581</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04295222648930136</v>
+        <v>0.05428200654966327</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>867680009.0750394</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4738148534.649372</v>
+        <v>4544585830.760749</v>
       </c>
       <c r="F46" t="n">
-        <v>0.125456786587864</v>
+        <v>0.1306713542471803</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05751578988796979</v>
+        <v>0.04240297606626183</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>102</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2369074279.128764</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4175581192.377642</v>
+        <v>4662224017.046517</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2025320905924502</v>
+        <v>0.1451457757951198</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04894432007980427</v>
+        <v>0.05091832659982203</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>76</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2087790605.263695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3067099329.822846</v>
+        <v>2920586220.413667</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07465782629443944</v>
+        <v>0.09791132425465865</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02765760917346791</v>
+        <v>0.0248741907738489</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>95</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1533549753.486754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1368965516.458753</v>
+        <v>1229346301.530393</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1578913297690379</v>
+        <v>0.1613768249162196</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03970217381015697</v>
+        <v>0.03667704569432811</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>684482810.6163228</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3649962852.463266</v>
+        <v>2873658447.740607</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1631373600514799</v>
+        <v>0.1653821627963972</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04115243474061164</v>
+        <v>0.04941439441699867</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>97</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1824981439.822383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1303930466.274389</v>
+        <v>985396241.2222899</v>
       </c>
       <c r="F51" t="n">
-        <v>0.176352100659221</v>
+        <v>0.1346786497443916</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04516265410979466</v>
+        <v>0.03628388740467862</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>651965267.8487904</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3768228751.447578</v>
+        <v>4182590123.671206</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1268235736579078</v>
+        <v>0.0837591869237827</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04458766329865479</v>
+        <v>0.05139819587472421</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>118</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1884114445.84082</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2617993392.474566</v>
+        <v>3116556416.232332</v>
       </c>
       <c r="F53" t="n">
-        <v>0.168856357813251</v>
+        <v>0.1677844588000644</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02292633361104731</v>
+        <v>0.0228205191486713</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>82</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1308996755.066987</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3869520168.082705</v>
+        <v>3621958390.597102</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1232874564224596</v>
+        <v>0.1136232092966191</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03522458674039947</v>
+        <v>0.0419131889582238</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>94</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1934760137.865558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3626806587.668453</v>
+        <v>4519329975.523715</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1586970580867161</v>
+        <v>0.1670671698521497</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02078115910510476</v>
+        <v>0.01988485090717723</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1813403252.273998</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1391163713.829545</v>
+        <v>1740786131.607776</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1395595843909155</v>
+        <v>0.1202306291710484</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05510822379306095</v>
+        <v>0.05049183319857374</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>695581915.3099735</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3936206411.878458</v>
+        <v>2947545006.034132</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1607026313110253</v>
+        <v>0.1481725409784606</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02049191662380746</v>
+        <v>0.02045750356369182</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>91</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1968103288.949689</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1283605362.015764</v>
+        <v>1166135875.265674</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1787249854679202</v>
+        <v>0.1230264057713687</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02748787135610915</v>
+        <v>0.03756166598290303</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>641802731.8830589</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4188693503.412058</v>
+        <v>3549881887.029518</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09627705849910498</v>
+        <v>0.1159338085200988</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04849899702144861</v>
+        <v>0.03952431487807439</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2094346718.536038</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3577189324.499448</v>
+        <v>3483144209.739471</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1868501490778073</v>
+        <v>0.1769252998028704</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02412764396205894</v>
+        <v>0.03072310763467484</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>89</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1788594793.143323</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3272947770.121284</v>
+        <v>2744919707.684223</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1444969276084961</v>
+        <v>0.1162844568462753</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02709135194849631</v>
+        <v>0.02564001634258703</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>98</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1636473839.788271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1347085332.597596</v>
+        <v>1696720164.338924</v>
       </c>
       <c r="F62" t="n">
-        <v>0.174580154132255</v>
+        <v>0.1798296592273725</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03738448881681213</v>
+        <v>0.0394062805513247</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>673542626.4256493</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4024443058.153844</v>
+        <v>5196699141.208869</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09565004433315771</v>
+        <v>0.09907437301649197</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0340100593741192</v>
+        <v>0.03655923850173823</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>82</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2012221590.387747</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4030152964.131411</v>
+        <v>5417251003.49125</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1468722763777296</v>
+        <v>0.1546708376629669</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02372672861160453</v>
+        <v>0.03304818692314346</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>89</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2015076520.044714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5262101564.746317</v>
+        <v>4826480988.085871</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1093276166716107</v>
+        <v>0.1088715111832221</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02529853875762158</v>
+        <v>0.03069493532028822</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>103</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2631050725.640674</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4899552738.114074</v>
+        <v>5448904204.254125</v>
       </c>
       <c r="F66" t="n">
-        <v>0.127962994861692</v>
+        <v>0.125916246794625</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03949737304231978</v>
+        <v>0.03127257741777243</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>83</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2449776390.836111</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2691563808.018162</v>
+        <v>2359331439.455812</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1034886571517291</v>
+        <v>0.09102140162808273</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03740840790414159</v>
+        <v>0.03118916522379677</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>91</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1345781948.407746</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5795711035.665722</v>
+        <v>3741645471.995965</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1532873983800354</v>
+        <v>0.1183750643196237</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04329570122091182</v>
+        <v>0.03410797740591404</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>96</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2897855622.441275</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1884746474.86625</v>
+        <v>1765797427.835771</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1827757150576892</v>
+        <v>0.1171463390714239</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05210630076870015</v>
+        <v>0.06010047263580213</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>942373227.4714333</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2813566791.031456</v>
+        <v>2805833725.437338</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09728570779716693</v>
+        <v>0.06928546595187672</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03272458249018168</v>
+        <v>0.03472573185324105</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>82</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1406783360.331507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4940446926.900111</v>
+        <v>4763332021.301227</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1549745093680879</v>
+        <v>0.1612052621766434</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03281675819902601</v>
+        <v>0.02839218713245569</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>104</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2470223564.709462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2060469844.548053</v>
+        <v>1939601019.045007</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0853164739922842</v>
+        <v>0.1045715661007935</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03252595237354391</v>
+        <v>0.04786684723482835</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1030234858.882158</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2166655727.662062</v>
+        <v>2490523248.737941</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06977389052964428</v>
+        <v>0.07611925692426501</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03563087487853785</v>
+        <v>0.04652065285642788</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>109</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1083327936.129887</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2445322985.028337</v>
+        <v>3680969199.661918</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1631230503806875</v>
+        <v>0.1694689792106402</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02920177805301002</v>
+        <v>0.03163112200101093</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>97</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1222661605.885267</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1852866490.694859</v>
+        <v>1667477078.745918</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1512596870590727</v>
+        <v>0.1075772646744299</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02451649971361822</v>
+        <v>0.03522993008301237</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>926433223.2941091</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3616983965.022282</v>
+        <v>4552609166.611691</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1007323126177601</v>
+        <v>0.09464342764041553</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0225140891627101</v>
+        <v>0.0335300609391859</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1808491951.168095</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1856442761.301101</v>
+        <v>2150061675.148447</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1370784892746355</v>
+        <v>0.1268453931638871</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02995161288555276</v>
+        <v>0.0250659585694109</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>928221420.9374729</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4214669110.347319</v>
+        <v>4031577742.44203</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1316185436694744</v>
+        <v>0.08244928700334812</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0497063467175179</v>
+        <v>0.05625484232831297</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>99</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2107334505.55256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1461381838.826137</v>
+        <v>1915682875.995811</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1753326224444757</v>
+        <v>0.156861580173604</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04033784492068095</v>
+        <v>0.02467235577673483</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>730690946.8633288</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4390263455.079612</v>
+        <v>4624816296.459863</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07691443063781239</v>
+        <v>0.1099448761414035</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02603336862248697</v>
+        <v>0.03419708677625178</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>60</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2195131746.411742</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4042208773.105533</v>
+        <v>4476047378.702787</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08692961148176409</v>
+        <v>0.08394452238346037</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02510300597383036</v>
+        <v>0.02303158269933293</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2021104351.336738</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5129180653.658201</v>
+        <v>5567260750.119578</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1698287531043245</v>
+        <v>0.1993523014751205</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02808542206643036</v>
+        <v>0.0291767552156701</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>100</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2564590303.565446</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2005344126.80564</v>
+        <v>2204114126.862399</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1057033055191163</v>
+        <v>0.1098594249915179</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03883822560889936</v>
+        <v>0.03054581169563395</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1002672049.408878</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2125739855.676397</v>
+        <v>1694723933.951334</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1058151801401492</v>
+        <v>0.08923539103523365</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0410032774405051</v>
+        <v>0.03991615017791483</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1062869914.405912</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3237411540.664085</v>
+        <v>2736981405.651265</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1454647788823345</v>
+        <v>0.1215211112067439</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04526783388147228</v>
+        <v>0.04315411438973705</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>107</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1618705856.692399</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2809777226.177641</v>
+        <v>2634044836.672245</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1437807729862129</v>
+        <v>0.15318017422198</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01677725364677689</v>
+        <v>0.02058240744772153</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>36</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1404888753.302284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>923083329.7776297</v>
+        <v>1104532124.942214</v>
       </c>
       <c r="F87" t="n">
-        <v>0.16146764632316</v>
+        <v>0.1276631503385901</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03747070075856609</v>
+        <v>0.03847737992521726</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>461541649.5032241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2416956853.06408</v>
+        <v>2636518659.202481</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1457698046881322</v>
+        <v>0.1774588931204536</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03234533151101032</v>
+        <v>0.02864097202047338</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>113</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1208478399.350766</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3501456972.037526</v>
+        <v>2387008600.802933</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0972768344565975</v>
+        <v>0.1373167997893715</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02962423525307665</v>
+        <v>0.03456809456324613</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>98</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1750728487.384629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1428499953.992981</v>
+        <v>1433356236.247971</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1077276583340579</v>
+        <v>0.08880319377985788</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04266879005865915</v>
+        <v>0.05332227346495444</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>714249942.6700277</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1681863080.47843</v>
+        <v>2051859704.185805</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1333993235738278</v>
+        <v>0.1812252991900733</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04678549193434957</v>
+        <v>0.042412185826933</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>840931554.933055</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2700970066.716763</v>
+        <v>2236713968.929358</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08898987189500597</v>
+        <v>0.08483133480310805</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04295098611710743</v>
+        <v>0.02916883456987006</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>72</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1350485032.471597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3996699600.042602</v>
+        <v>3624425483.403646</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1269410774044352</v>
+        <v>0.1190945531220428</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03855394796484077</v>
+        <v>0.04109970314565273</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>90</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1998349800.861668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1568812611.553042</v>
+        <v>2432680813.291912</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1561370964962817</v>
+        <v>0.1627915223062291</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03492450238906575</v>
+        <v>0.04035525876130128</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>784406248.0076189</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3170147029.376505</v>
+        <v>2355376715.565795</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1168469593512516</v>
+        <v>0.09986752344651227</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04317798832000046</v>
+        <v>0.05144078071779756</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>69</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1585073502.07369</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2145818414.588514</v>
+        <v>1883937006.919528</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08672801404072908</v>
+        <v>0.1292181875707495</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03982568356851811</v>
+        <v>0.03334626074979459</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1072909178.699241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5341835442.523243</v>
+        <v>4414369496.787979</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1138551609969349</v>
+        <v>0.1098179476550509</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02666813839584991</v>
+        <v>0.02159364423976793</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>91</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2670917885.548495</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2402643894.332275</v>
+        <v>3229510205.256825</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1152154514677392</v>
+        <v>0.08078493637739093</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02220706399248162</v>
+        <v>0.02118155864805426</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>77</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1201321891.346372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3125896243.908597</v>
+        <v>2312778864.136632</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1141561670841362</v>
+        <v>0.1008107590381002</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02845178546500248</v>
+        <v>0.026199062038867</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>89</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1562948117.011102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4167250347.739701</v>
+        <v>3837718593.340227</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1398555942061521</v>
+        <v>0.1269001896865019</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02594964104854748</v>
+        <v>0.0220181969457654</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>89</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2083625257.89585</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2240610728.88848</v>
+        <v>2510394275.78991</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1434287369066104</v>
+        <v>0.202824941426354</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04447619610374424</v>
+        <v>0.04305387524882413</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>113</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1120305353.133043</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_285.xlsx
+++ b/output/fit_clients/fit_round_285.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2014781067.490192</v>
+        <v>1868813929.251106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1066105788126262</v>
+        <v>0.06904631029188839</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04253934659485942</v>
+        <v>0.04334186452296641</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2384020481.041859</v>
+        <v>1886222377.266513</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1445258951876668</v>
+        <v>0.1616772803297507</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03998775802812821</v>
+        <v>0.04543948835509074</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4983666499.408914</v>
+        <v>5039762278.995095</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1325963316092395</v>
+        <v>0.1214916234359416</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02650532901372398</v>
+        <v>0.02521303507212223</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3474746511.806096</v>
+        <v>3152082780.754352</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09502567331833081</v>
+        <v>0.104480507894561</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0427927731495179</v>
+        <v>0.04992996895475254</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2100301427.43002</v>
+        <v>2383022568.992418</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1314482942577628</v>
+        <v>0.1111168964006081</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03574772558850432</v>
+        <v>0.04610601633030235</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2118466446.66459</v>
+        <v>1956952355.269941</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07144324398522556</v>
+        <v>0.07932847624656375</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0375873937049163</v>
+        <v>0.03000188198953536</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2494346333.832736</v>
+        <v>3079282613.59662</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2155046108497116</v>
+        <v>0.1574764144699995</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02818487513308161</v>
+        <v>0.02313095402447686</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1840135119.125724</v>
+        <v>1819456578.05939</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1904321201819458</v>
+        <v>0.145270421730643</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03480757052033649</v>
+        <v>0.03180320310195617</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3820368324.662836</v>
+        <v>5839633384.801448</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1782471426255891</v>
+        <v>0.1698732562709495</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0452035168888615</v>
+        <v>0.05419443182368276</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2642496004.308772</v>
+        <v>3046695584.179783</v>
       </c>
       <c r="F11" t="n">
-        <v>0.119405387868501</v>
+        <v>0.1796584427620599</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03137701855428295</v>
+        <v>0.04973281044199555</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3201026295.169457</v>
+        <v>3120583114.758746</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1935983523938434</v>
+        <v>0.15187068545983</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03531208789612548</v>
+        <v>0.04939126644613798</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5222200436.897394</v>
+        <v>3712806286.926126</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08317529167570367</v>
+        <v>0.077733801330423</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02949286664170608</v>
+        <v>0.02609308241271817</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2954022704.926449</v>
+        <v>3676482934.121787</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1487795243154331</v>
+        <v>0.1262372689129088</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03646660882760803</v>
+        <v>0.0274968993623821</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1242415127.122882</v>
+        <v>1581004849.412428</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08453822095158656</v>
+        <v>0.09309177877126715</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0402626595484361</v>
+        <v>0.03279271919025186</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2218916262.711004</v>
+        <v>1937739437.146664</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07136788714197859</v>
+        <v>0.08077438696228778</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0479203018100013</v>
+        <v>0.0506266771970461</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4669136030.315019</v>
+        <v>3888605947.419192</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1545958522360003</v>
+        <v>0.1632906266024891</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04700141094844395</v>
+        <v>0.04840139428920792</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3980817590.905652</v>
+        <v>3595250038.553398</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1137066290444099</v>
+        <v>0.1730548645925568</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02466312979343988</v>
+        <v>0.02420059588798871</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1344684711.607754</v>
+        <v>1368109319.782712</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1212411397346555</v>
+        <v>0.1253544457006723</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02195685230128178</v>
+        <v>0.01946118917059513</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2691683225.801003</v>
+        <v>2297198551.468102</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1304508929352876</v>
+        <v>0.1161963039208474</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02539671580050093</v>
+        <v>0.03074011429586927</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1873926848.642105</v>
+        <v>1660088762.146558</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1016364751531594</v>
+        <v>0.08897029261317493</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03385121831082526</v>
+        <v>0.03775373621210503</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2896085839.822507</v>
+        <v>3923933666.461611</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1242209444946664</v>
+        <v>0.1154036187893882</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05156818965194961</v>
+        <v>0.05159003378221708</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>976734174.0939296</v>
+        <v>1193934165.880028</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1451763240756013</v>
+        <v>0.1592133893988087</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05143689032769677</v>
+        <v>0.05388833596512452</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3326058008.708161</v>
+        <v>3615307048.876254</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1314117690268055</v>
+        <v>0.1497292106509773</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02783932179678286</v>
+        <v>0.03521084728875528</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1276190458.706662</v>
+        <v>1333804461.758073</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08086283791540085</v>
+        <v>0.07766592904028398</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03034331579452572</v>
+        <v>0.01907357919856245</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1417091649.045588</v>
+        <v>1390833488.023787</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07869958996819036</v>
+        <v>0.1146059272923643</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03577146437141443</v>
+        <v>0.03209842833263243</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2985552260.232561</v>
+        <v>4237122307.780898</v>
       </c>
       <c r="F27" t="n">
-        <v>0.134421263951569</v>
+        <v>0.1526210428266255</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0178741487348818</v>
+        <v>0.02681671812660268</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3816869249.515412</v>
+        <v>2491047158.540001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1261874214598648</v>
+        <v>0.1233539214869158</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03741279582749418</v>
+        <v>0.0417720906251174</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3774932092.680515</v>
+        <v>3667000854.056625</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1215112133974838</v>
+        <v>0.1328102021138456</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03908267329056542</v>
+        <v>0.03078333145567341</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2076559064.434323</v>
+        <v>1958559300.759817</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1399878813714049</v>
+        <v>0.1356932407806998</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03235317985829211</v>
+        <v>0.03242852001458547</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1375211348.798101</v>
+        <v>1106963081.392837</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07261110001354704</v>
+        <v>0.09384077421085932</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04365204985256951</v>
+        <v>0.04219934221377249</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1266782174.450795</v>
+        <v>1145216438.038887</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08498914337721535</v>
+        <v>0.09062216376450508</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03182122795361263</v>
+        <v>0.03494712586096799</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2469543920.382474</v>
+        <v>2710286360.699693</v>
       </c>
       <c r="F33" t="n">
-        <v>0.156614228004649</v>
+        <v>0.170543659537927</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0381964726908554</v>
+        <v>0.04387840039602546</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1302080100.85419</v>
+        <v>1041425202.323715</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1078319511357452</v>
+        <v>0.09452219308050311</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02046228484925003</v>
+        <v>0.02277886996032976</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1036661746.839575</v>
+        <v>872512639.4134166</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1020291686571173</v>
+        <v>0.1120353873160699</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03546678604395167</v>
+        <v>0.03900568337318761</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3207183882.825477</v>
+        <v>2814146865.234142</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1626194120790494</v>
+        <v>0.1617854026820047</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02342312399202769</v>
+        <v>0.02491231338029895</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2027967876.85335</v>
+        <v>1976882141.172935</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1017754481573314</v>
+        <v>0.09563340580671544</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04103960073259266</v>
+        <v>0.03679504069249849</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1717165446.716607</v>
+        <v>1711816909.481717</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1220559254076594</v>
+        <v>0.07608922303619264</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0328950698880072</v>
+        <v>0.02555156110985284</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2171883393.469644</v>
+        <v>1918684823.54722</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1173627336720473</v>
+        <v>0.1438518556135418</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02929422438369673</v>
+        <v>0.0275157272762639</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1546629875.144651</v>
+        <v>1196558214.952878</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1483144169216345</v>
+        <v>0.1170419873934817</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05929341853001679</v>
+        <v>0.04851906486656968</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1963168834.196531</v>
+        <v>2673519163.747118</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1281126803211618</v>
+        <v>0.1537788381787043</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04238413085404687</v>
+        <v>0.02955555105359431</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2968619112.18223</v>
+        <v>2853331344.617337</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1249987292734373</v>
+        <v>0.1254019817491528</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04642414335282183</v>
+        <v>0.0441247730896815</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2836358739.426722</v>
+        <v>2083056689.345847</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1767721903757892</v>
+        <v>0.1937398351681092</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01839104978106443</v>
+        <v>0.02467479056356398</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2357534457.839735</v>
+        <v>2302176200.974201</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07422340927825347</v>
+        <v>0.0808233485110114</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03347309599759675</v>
+        <v>0.0228735032307476</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1876464772.40812</v>
+        <v>1739838163.803299</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1658138708739581</v>
+        <v>0.1898871019712015</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05428200654966327</v>
+        <v>0.05383003996993307</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4544585830.760749</v>
+        <v>5250862373.896832</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1306713542471803</v>
+        <v>0.1475830394916784</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04240297606626183</v>
+        <v>0.04249866394711739</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4662224017.046517</v>
+        <v>3743262296.760439</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1451457757951198</v>
+        <v>0.1677817544797391</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05091832659982203</v>
+        <v>0.05289761165058513</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2920586220.413667</v>
+        <v>4689522898.612248</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09791132425465865</v>
+        <v>0.08191430032492797</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0248741907738489</v>
+        <v>0.03392917567391365</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1229346301.530393</v>
+        <v>1941504335.034539</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1613768249162196</v>
+        <v>0.1574788501866961</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03667704569432811</v>
+        <v>0.03096684079120016</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2873658447.740607</v>
+        <v>3875813633.489454</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1653821627963972</v>
+        <v>0.1732916765897432</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04941439441699867</v>
+        <v>0.04338115847350345</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>985396241.2222899</v>
+        <v>1445644925.96258</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1346786497443916</v>
+        <v>0.120700894332486</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03628388740467862</v>
+        <v>0.04118662810076659</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4182590123.671206</v>
+        <v>5064417598.110222</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0837591869237827</v>
+        <v>0.08998515968387767</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05139819587472421</v>
+        <v>0.05625468866707296</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3116556416.232332</v>
+        <v>3209576729.515683</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1677844588000644</v>
+        <v>0.127186608646144</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0228205191486713</v>
+        <v>0.03016269078096942</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3621958390.597102</v>
+        <v>4129457010.295144</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1136232092966191</v>
+        <v>0.1277163527297639</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0419131889582238</v>
+        <v>0.03446351383929846</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4519329975.523715</v>
+        <v>3325116621.273405</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1670671698521497</v>
+        <v>0.168089785365112</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01988485090717723</v>
+        <v>0.03173349275685853</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1740786131.607776</v>
+        <v>1709274934.526718</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1202306291710484</v>
+        <v>0.1101748889378439</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05049183319857374</v>
+        <v>0.0372412695884344</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2947545006.034132</v>
+        <v>3674641490.036647</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1481725409784606</v>
+        <v>0.1528727550279083</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02045750356369182</v>
+        <v>0.0249660797323604</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1166135875.265674</v>
+        <v>1452512257.964378</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1230264057713687</v>
+        <v>0.1637650361120039</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03756166598290303</v>
+        <v>0.03907705167585512</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3549881887.029518</v>
+        <v>4819321528.723328</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1159338085200988</v>
+        <v>0.1078124874017573</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03952431487807439</v>
+        <v>0.04137776536511928</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3483144209.739471</v>
+        <v>3361739967.961499</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1769252998028704</v>
+        <v>0.1980536331600175</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03072310763467484</v>
+        <v>0.02497523618711522</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2744919707.684223</v>
+        <v>3247864999.357816</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1162844568462753</v>
+        <v>0.1313902057207241</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02564001634258703</v>
+        <v>0.02369018338988486</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1696720164.338924</v>
+        <v>1975598742.066267</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1798296592273725</v>
+        <v>0.1729432878010732</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0394062805513247</v>
+        <v>0.04484362192326146</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5196699141.208869</v>
+        <v>3581043482.271816</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09907437301649197</v>
+        <v>0.07189317470279671</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03655923850173823</v>
+        <v>0.03326730797250566</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5417251003.49125</v>
+        <v>3789845316.216742</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1546708376629669</v>
+        <v>0.176225428980546</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03304818692314346</v>
+        <v>0.02401173474954269</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4826480988.085871</v>
+        <v>4431992202.819227</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1088715111832221</v>
+        <v>0.1299445145557803</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03069493532028822</v>
+        <v>0.03160479291563009</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5448904204.254125</v>
+        <v>5127086138.112672</v>
       </c>
       <c r="F66" t="n">
-        <v>0.125916246794625</v>
+        <v>0.1562453003989728</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03127257741777243</v>
+        <v>0.03329809557717792</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2359331439.455812</v>
+        <v>2709644838.918751</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09102140162808273</v>
+        <v>0.08419215682795522</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03118916522379677</v>
+        <v>0.03636192180056445</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3741645471.995965</v>
+        <v>5945560140.96391</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1183750643196237</v>
+        <v>0.1365867085108453</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03410797740591404</v>
+        <v>0.03268222080210215</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1765797427.835771</v>
+        <v>1785017294.973527</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1171463390714239</v>
+        <v>0.178826000414429</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06010047263580213</v>
+        <v>0.04000263901591949</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2805833725.437338</v>
+        <v>2686286549.792706</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06928546595187672</v>
+        <v>0.1004368513356797</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03472573185324105</v>
+        <v>0.03311231132658219</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4763332021.301227</v>
+        <v>4494577377.301315</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1612052621766434</v>
+        <v>0.1132518508637014</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02839218713245569</v>
+        <v>0.02774417583659397</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1939601019.045007</v>
+        <v>2146889775.008757</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1045715661007935</v>
+        <v>0.1065679088200606</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04786684723482835</v>
+        <v>0.03926616659879163</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2490523248.737941</v>
+        <v>2823445170.260071</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07611925692426501</v>
+        <v>0.06826089745291414</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04652065285642788</v>
+        <v>0.04883377603308914</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3680969199.661918</v>
+        <v>2788270551.977713</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1694689792106402</v>
+        <v>0.1511890667810226</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03163112200101093</v>
+        <v>0.03233812946864981</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1667477078.745918</v>
+        <v>1680081958.404866</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1075772646744299</v>
+        <v>0.1660300744491095</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03522993008301237</v>
+        <v>0.02586152698944648</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4552609166.611691</v>
+        <v>4846779645.699729</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09464342764041553</v>
+        <v>0.08860942098667403</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0335300609391859</v>
+        <v>0.03281923052391233</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2150061675.148447</v>
+        <v>1720670496.199391</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1268453931638871</v>
+        <v>0.1601135332726684</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0250659585694109</v>
+        <v>0.02483331865664674</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4031577742.44203</v>
+        <v>4283311954.6499</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08244928700334812</v>
+        <v>0.08678417000465666</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05625484232831297</v>
+        <v>0.04493652875722232</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1915682875.995811</v>
+        <v>1416191227.819257</v>
       </c>
       <c r="F79" t="n">
-        <v>0.156861580173604</v>
+        <v>0.1617812753324961</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02467235577673483</v>
+        <v>0.03936639991202003</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4624816296.459863</v>
+        <v>5623461848.90841</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1099448761414035</v>
+        <v>0.07562019579375635</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03419708677625178</v>
+        <v>0.02635885785878202</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4476047378.702787</v>
+        <v>3905666783.433608</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08394452238346037</v>
+        <v>0.1347187628378434</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02303158269933293</v>
+        <v>0.02932655880096275</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5567260750.119578</v>
+        <v>5347928892.363476</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1993523014751205</v>
+        <v>0.1542723493716125</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0291767552156701</v>
+        <v>0.02332279527008383</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2204114126.862399</v>
+        <v>2407803704.451762</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1098594249915179</v>
+        <v>0.1286599599890771</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03054581169563395</v>
+        <v>0.03595435840037257</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1694723933.951334</v>
+        <v>1814225323.753269</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08923539103523365</v>
+        <v>0.08319068830939461</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03991615017791483</v>
+        <v>0.03922779431860254</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2736981405.651265</v>
+        <v>2425898620.357749</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1215211112067439</v>
+        <v>0.1152852537290944</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04315411438973705</v>
+        <v>0.04756501424691139</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2634044836.672245</v>
+        <v>2136849082.432863</v>
       </c>
       <c r="F86" t="n">
-        <v>0.15318017422198</v>
+        <v>0.1714942756210714</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02058240744772153</v>
+        <v>0.02265091627373885</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1104532124.942214</v>
+        <v>1233717940.162832</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1276631503385901</v>
+        <v>0.1471208113731518</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03847737992521726</v>
+        <v>0.04073165407956839</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2636518659.202481</v>
+        <v>2574566089.350546</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1774588931204536</v>
+        <v>0.1638138881044779</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02864097202047338</v>
+        <v>0.02651218830426242</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2387008600.802933</v>
+        <v>2844320142.700724</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1373167997893715</v>
+        <v>0.09706603043853868</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03456809456324613</v>
+        <v>0.03555253090630384</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1433356236.247971</v>
+        <v>1677106003.584787</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08880319377985788</v>
+        <v>0.08445681874451824</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05332227346495444</v>
+        <v>0.0467054633255153</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2051859704.185805</v>
+        <v>1319839677.912205</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1812252991900733</v>
+        <v>0.1854921364500741</v>
       </c>
       <c r="G91" t="n">
-        <v>0.042412185826933</v>
+        <v>0.0414749830749782</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2236713968.929358</v>
+        <v>2765034240.80403</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08483133480310805</v>
+        <v>0.08620317295888309</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02916883456987006</v>
+        <v>0.04199909930780749</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3624425483.403646</v>
+        <v>4425433284.963695</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1190945531220428</v>
+        <v>0.1296313466384695</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04109970314565273</v>
+        <v>0.04818939942048399</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2432680813.291912</v>
+        <v>2272917828.563049</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1627915223062291</v>
+        <v>0.1048533191095604</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04035525876130128</v>
+        <v>0.04118203964288713</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2355376715.565795</v>
+        <v>2698043785.80913</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09986752344651227</v>
+        <v>0.121457776288729</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05144078071779756</v>
+        <v>0.04800812401868782</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1883937006.919528</v>
+        <v>1495519076.832006</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1292181875707495</v>
+        <v>0.09130215702092064</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03334626074979459</v>
+        <v>0.04587667077583684</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4414369496.787979</v>
+        <v>4826884311.988518</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1098179476550509</v>
+        <v>0.1194648046880448</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02159364423976793</v>
+        <v>0.02721019289678438</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3229510205.256825</v>
+        <v>3663251736.874809</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08078493637739093</v>
+        <v>0.1065097413401637</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02118155864805426</v>
+        <v>0.03144555003773028</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2312778864.136632</v>
+        <v>3307477950.178102</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1008107590381002</v>
+        <v>0.1201330083712024</v>
       </c>
       <c r="G99" t="n">
-        <v>0.026199062038867</v>
+        <v>0.02596832825483709</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3837718593.340227</v>
+        <v>4117117442.417949</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1269001896865019</v>
+        <v>0.115362041553812</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0220181969457654</v>
+        <v>0.0232922337506106</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2510394275.78991</v>
+        <v>2902623905.407796</v>
       </c>
       <c r="F101" t="n">
-        <v>0.202824941426354</v>
+        <v>0.1360451961813404</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04305387524882413</v>
+        <v>0.05858852343369781</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_285.xlsx
+++ b/output/fit_clients/fit_round_285.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1868813929.251106</v>
+        <v>2411138633.322943</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06904631029188839</v>
+        <v>0.1099950299794907</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04334186452296641</v>
+        <v>0.03792157954552089</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1886222377.266513</v>
+        <v>2505345986.664543</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1616772803297507</v>
+        <v>0.1181919750905332</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04543948835509074</v>
+        <v>0.04570073406474165</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5039762278.995095</v>
+        <v>4093962057.380519</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1214916234359416</v>
+        <v>0.1431392100255559</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02521303507212223</v>
+        <v>0.03831911218050626</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>151</v>
+      </c>
+      <c r="J4" t="n">
+        <v>285</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3152082780.754352</v>
+        <v>3850229395.942915</v>
       </c>
       <c r="F5" t="n">
-        <v>0.104480507894561</v>
+        <v>0.08159529996994069</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04992996895475254</v>
+        <v>0.04856125901246012</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>115</v>
+      </c>
+      <c r="J5" t="n">
+        <v>285</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2383022568.992418</v>
+        <v>1953063514.195994</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1111168964006081</v>
+        <v>0.1316563303046752</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04610601633030235</v>
+        <v>0.04580639834845885</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1956952355.269941</v>
+        <v>2650235549.917264</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07932847624656375</v>
+        <v>0.08523523807939629</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03000188198953536</v>
+        <v>0.03996095246842027</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3079282613.59662</v>
+        <v>3428988576.480962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1574764144699995</v>
+        <v>0.1671152907248278</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02313095402447686</v>
+        <v>0.021326496980956</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>76</v>
+      </c>
+      <c r="J8" t="n">
+        <v>284</v>
+      </c>
+      <c r="K8" t="n">
+        <v>70.74084659377803</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1819456578.05939</v>
+        <v>1499100789.21135</v>
       </c>
       <c r="F9" t="n">
-        <v>0.145270421730643</v>
+        <v>0.1866243306642076</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03180320310195617</v>
+        <v>0.02984956556140456</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5839633384.801448</v>
+        <v>4765894020.708742</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1698732562709495</v>
+        <v>0.2141445851844749</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05419443182368276</v>
+        <v>0.05209309223506694</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>255</v>
+      </c>
+      <c r="J10" t="n">
+        <v>285</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +818,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3046695584.179783</v>
+        <v>4244348534.240679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1796584427620599</v>
+        <v>0.1856445600428043</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04973281044199555</v>
+        <v>0.03181956906388148</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>115</v>
+      </c>
+      <c r="J11" t="n">
+        <v>285</v>
+      </c>
+      <c r="K11" t="n">
+        <v>100.1984813347393</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3120583114.758746</v>
+        <v>3054229883.684946</v>
       </c>
       <c r="F12" t="n">
-        <v>0.15187068545983</v>
+        <v>0.1814154292478934</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04939126644613798</v>
+        <v>0.03664641575837684</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3712806286.926126</v>
+        <v>3218347555.372699</v>
       </c>
       <c r="F13" t="n">
-        <v>0.077733801330423</v>
+        <v>0.08192095345877465</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02609308241271817</v>
+        <v>0.02347400953607694</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>145</v>
+      </c>
+      <c r="J13" t="n">
+        <v>283</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3676482934.121787</v>
+        <v>2628506984.551754</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1262372689129088</v>
+        <v>0.1707739349351161</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0274968993623821</v>
+        <v>0.04424642932848485</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>58</v>
+      </c>
+      <c r="J14" t="n">
+        <v>284</v>
+      </c>
+      <c r="K14" t="n">
+        <v>43.17275080640557</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1581004849.412428</v>
+        <v>1340269521.304472</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09309177877126715</v>
+        <v>0.1074110303632104</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03279271919025186</v>
+        <v>0.03855170116931483</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1937739437.146664</v>
+        <v>2479560839.544724</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08077438696228778</v>
+        <v>0.08750622931565603</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0506266771970461</v>
+        <v>0.0365101293662955</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3888605947.419192</v>
+        <v>3239013866.779886</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1632906266024891</v>
+        <v>0.1237462646323479</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04840139428920792</v>
+        <v>0.03219281955637101</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>136</v>
+      </c>
+      <c r="J17" t="n">
+        <v>283</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3595250038.553398</v>
+        <v>3860619835.5032</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1730548645925568</v>
+        <v>0.1813623335303243</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02420059588798871</v>
+        <v>0.02920648779903593</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>71</v>
+      </c>
+      <c r="J18" t="n">
+        <v>285</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1368109319.782712</v>
+        <v>1047687454.937688</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1253544457006723</v>
+        <v>0.1393351543596675</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01946118917059513</v>
+        <v>0.02518150252258521</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2297198551.468102</v>
+        <v>2422276813.914614</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1161963039208474</v>
+        <v>0.1102338588326566</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03074011429586927</v>
+        <v>0.0247624968925607</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1660088762.146558</v>
+        <v>2005919251.137487</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08897029261317493</v>
+        <v>0.1019845381397069</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03775373621210503</v>
+        <v>0.04030051022283909</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3923933666.461611</v>
+        <v>3559676407.10604</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1154036187893882</v>
+        <v>0.1112446830302687</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05159003378221708</v>
+        <v>0.05696614592590789</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>76</v>
+      </c>
+      <c r="J22" t="n">
+        <v>284</v>
+      </c>
+      <c r="K22" t="n">
+        <v>68.17727512220448</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1193934165.880028</v>
+        <v>1320402974.812683</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1592133893988087</v>
+        <v>0.1294184902787298</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05388833596512452</v>
+        <v>0.04855654648514925</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3615307048.876254</v>
+        <v>3450496567.146862</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1497292106509773</v>
+        <v>0.1364508484567919</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03521084728875528</v>
+        <v>0.0300493446835928</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>84</v>
+      </c>
+      <c r="J24" t="n">
+        <v>282</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1333804461.758073</v>
+        <v>986537904.0877182</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07766592904028398</v>
+        <v>0.08478476001034986</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01907357919856245</v>
+        <v>0.02257088972680877</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1390833488.023787</v>
+        <v>912455220.3539009</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1146059272923643</v>
+        <v>0.1232273046200764</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03209842833263243</v>
+        <v>0.03363284566199417</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4237122307.780898</v>
+        <v>4607442233.922566</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1526210428266255</v>
+        <v>0.1232203060761848</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02681671812660268</v>
+        <v>0.02650906401913287</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>116</v>
+      </c>
+      <c r="J27" t="n">
+        <v>285</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2491047158.540001</v>
+        <v>3004909014.87118</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1233539214869158</v>
+        <v>0.1007664556350171</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0417720906251174</v>
+        <v>0.04128164707349959</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>59</v>
+      </c>
+      <c r="J28" t="n">
+        <v>284</v>
+      </c>
+      <c r="K28" t="n">
+        <v>55.35544022459764</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3667000854.056625</v>
+        <v>4745839504.187396</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1328102021138456</v>
+        <v>0.1459066749477724</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03078333145567341</v>
+        <v>0.04371671164296172</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>271</v>
+      </c>
+      <c r="J29" t="n">
+        <v>285</v>
+      </c>
+      <c r="K29" t="n">
+        <v>90.72345272446272</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1958559300.759817</v>
+        <v>2061061208.01562</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1356932407806998</v>
+        <v>0.1344008807851013</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03242852001458547</v>
+        <v>0.0316118277952206</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1106963081.392837</v>
+        <v>1418389524.809693</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09384077421085932</v>
+        <v>0.08637920876528418</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04219934221377249</v>
+        <v>0.03882915225514939</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1145216438.038887</v>
+        <v>1670581400.66065</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09062216376450508</v>
+        <v>0.108745022573719</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03494712586096799</v>
+        <v>0.0311943962746037</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2710286360.699693</v>
+        <v>2310523303.484035</v>
       </c>
       <c r="F33" t="n">
-        <v>0.170543659537927</v>
+        <v>0.130588400082656</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04387840039602546</v>
+        <v>0.04040603138203994</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1041425202.323715</v>
+        <v>1026584634.359168</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09452219308050311</v>
+        <v>0.108387374551533</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02277886996032976</v>
+        <v>0.0235188788309499</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>872512639.4134166</v>
+        <v>936020628.6572082</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1120353873160699</v>
+        <v>0.08025506499578701</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03900568337318761</v>
+        <v>0.02926573901243722</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2814146865.234142</v>
+        <v>2622850565.288669</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1617854026820047</v>
+        <v>0.1243798754567405</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02491231338029895</v>
+        <v>0.02188079356119842</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1976882141.172935</v>
+        <v>2907675128.624074</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09563340580671544</v>
+        <v>0.1086863161002144</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03679504069249849</v>
+        <v>0.04233732680253479</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1711816909.481717</v>
+        <v>1941570429.928531</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07608922303619264</v>
+        <v>0.09660891591182838</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02555156110985284</v>
+        <v>0.03925836321080887</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1918684823.54722</v>
+        <v>1379551009.298039</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1438518556135418</v>
+        <v>0.1484264401673523</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0275157272762639</v>
+        <v>0.02999265293964176</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1196558214.952878</v>
+        <v>1643594744.650851</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1170419873934817</v>
+        <v>0.1438163285764005</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04851906486656968</v>
+        <v>0.05025436309663726</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2673519163.747118</v>
+        <v>1790903707.341487</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1537788381787043</v>
+        <v>0.1486587088564449</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02955555105359431</v>
+        <v>0.03038300623116188</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1913,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2853331344.617337</v>
+        <v>2736718494.978443</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1254019817491528</v>
+        <v>0.106737494228796</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0441247730896815</v>
+        <v>0.03185177044021555</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>118</v>
+      </c>
+      <c r="J42" t="n">
+        <v>281</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2083056689.345847</v>
+        <v>3029667508.930043</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1937398351681092</v>
+        <v>0.1826540839101297</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02467479056356398</v>
+        <v>0.02426433554051637</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2302176200.974201</v>
+        <v>1647120160.520831</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0808233485110114</v>
+        <v>0.08025922945712538</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0228735032307476</v>
+        <v>0.02982598978020827</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1739838163.803299</v>
+        <v>1640890919.721843</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1898871019712015</v>
+        <v>0.1526355152155111</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05383003996993307</v>
+        <v>0.05522378678980074</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5250862373.896832</v>
+        <v>4473544479.029638</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1475830394916784</v>
+        <v>0.1238317393198153</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04249866394711739</v>
+        <v>0.05155938884805268</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>168</v>
+      </c>
+      <c r="J46" t="n">
+        <v>284</v>
+      </c>
+      <c r="K46" t="n">
+        <v>89.40364355412879</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3743262296.760439</v>
+        <v>4132509069.055718</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1677817544797391</v>
+        <v>0.1498951896963771</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05289761165058513</v>
+        <v>0.03985666092521453</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>127</v>
+      </c>
+      <c r="J47" t="n">
+        <v>285</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4689522898.612248</v>
+        <v>3295917125.281012</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08191430032492797</v>
+        <v>0.1025745038299031</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03392917567391365</v>
+        <v>0.02628732560171214</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>142</v>
+      </c>
+      <c r="J48" t="n">
+        <v>284</v>
+      </c>
+      <c r="K48" t="n">
+        <v>63.58011902437773</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1941504335.034539</v>
+        <v>1889424130.002016</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1574788501866961</v>
+        <v>0.17089907166251</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03096684079120016</v>
+        <v>0.03887834306254102</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2197,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3875813633.489454</v>
+        <v>3327697981.301497</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1732916765897432</v>
+        <v>0.1362715616319335</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04338115847350345</v>
+        <v>0.04404416024873355</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>91</v>
+      </c>
+      <c r="J50" t="n">
+        <v>283</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1445644925.96258</v>
+        <v>1091685911.34174</v>
       </c>
       <c r="F51" t="n">
-        <v>0.120700894332486</v>
+        <v>0.1923895350401649</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04118662810076659</v>
+        <v>0.04481076750745434</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5064417598.110222</v>
+        <v>3834899530.574629</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08998515968387767</v>
+        <v>0.1057752339971171</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05625468866707296</v>
+        <v>0.05976368418149009</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>178</v>
+      </c>
+      <c r="J52" t="n">
+        <v>284</v>
+      </c>
+      <c r="K52" t="n">
+        <v>79.94036606245662</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3209576729.515683</v>
+        <v>3052973109.534469</v>
       </c>
       <c r="F53" t="n">
-        <v>0.127186608646144</v>
+        <v>0.1579711249997663</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03016269078096942</v>
+        <v>0.02755333015131737</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>282</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4129457010.295144</v>
+        <v>4458097368.750987</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1277163527297639</v>
+        <v>0.1435640425754619</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03446351383929846</v>
+        <v>0.04452996569565569</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>150</v>
+      </c>
+      <c r="J54" t="n">
+        <v>285</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3325116621.273405</v>
+        <v>3308948234.963556</v>
       </c>
       <c r="F55" t="n">
-        <v>0.168089785365112</v>
+        <v>0.1541969125542871</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03173349275685853</v>
+        <v>0.02116529619325521</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>129</v>
+      </c>
+      <c r="J55" t="n">
+        <v>283</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1709274934.526718</v>
+        <v>1416009300.910321</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1101748889378439</v>
+        <v>0.1299369888152394</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0372412695884344</v>
+        <v>0.04199209157494729</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3674641490.036647</v>
+        <v>3665985612.319216</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1528727550279083</v>
+        <v>0.1770674637794116</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0249660797323604</v>
+        <v>0.01955443988714839</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>116</v>
+      </c>
+      <c r="J57" t="n">
+        <v>284</v>
+      </c>
+      <c r="K57" t="n">
+        <v>75.70517553112528</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1452512257.964378</v>
+        <v>1861453585.936033</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1637650361120039</v>
+        <v>0.1432917429689044</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03907705167585512</v>
+        <v>0.03623372388768183</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4819321528.723328</v>
+        <v>4168254428.232511</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1078124874017573</v>
+        <v>0.1110878476895192</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04137776536511928</v>
+        <v>0.0465616942981687</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>137</v>
+      </c>
+      <c r="J59" t="n">
+        <v>285</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3361739967.961499</v>
+        <v>3269579033.633492</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1980536331600175</v>
+        <v>0.1646216382410543</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02497523618711522</v>
+        <v>0.02106206626119574</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>47</v>
+      </c>
+      <c r="J60" t="n">
+        <v>283</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3247864999.357816</v>
+        <v>2953659476.362498</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1313902057207241</v>
+        <v>0.1521698853875878</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02369018338988486</v>
+        <v>0.03127856533501707</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1975598742.066267</v>
+        <v>1396581177.39955</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1729432878010732</v>
+        <v>0.1690014928891076</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04484362192326146</v>
+        <v>0.03346900010765378</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2656,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3581043482.271816</v>
+        <v>4950555570.753531</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07189317470279671</v>
+        <v>0.07405011042316779</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03326730797250566</v>
+        <v>0.0296139287737051</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>138</v>
+      </c>
+      <c r="J63" t="n">
+        <v>285</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3789845316.216742</v>
+        <v>4011969276.121963</v>
       </c>
       <c r="F64" t="n">
-        <v>0.176225428980546</v>
+        <v>0.1671595398379424</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02401173474954269</v>
+        <v>0.03209737599846668</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>140</v>
+      </c>
+      <c r="J64" t="n">
+        <v>284</v>
+      </c>
+      <c r="K64" t="n">
+        <v>87.46001271499219</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4431992202.819227</v>
+        <v>4144691933.189926</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1299445145557803</v>
+        <v>0.1609087333022486</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03160479291563009</v>
+        <v>0.02090434292006234</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>228</v>
+      </c>
+      <c r="J65" t="n">
+        <v>285</v>
+      </c>
+      <c r="K65" t="n">
+        <v>90.3048542207208</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5127086138.112672</v>
+        <v>4887813804.131572</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1562453003989728</v>
+        <v>0.135514042821564</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03329809557717792</v>
+        <v>0.03972187493201669</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>141</v>
+      </c>
+      <c r="J66" t="n">
+        <v>284</v>
+      </c>
+      <c r="K66" t="n">
+        <v>80.54945050240677</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2709644838.918751</v>
+        <v>3315807348.450246</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08419215682795522</v>
+        <v>0.08687643458377338</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03636192180056445</v>
+        <v>0.04770540900815809</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5945560140.96391</v>
+        <v>4105393762.12848</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1365867085108453</v>
+        <v>0.09851620412495377</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03268222080210215</v>
+        <v>0.0447311901770785</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>148</v>
+      </c>
+      <c r="J68" t="n">
+        <v>285</v>
+      </c>
+      <c r="K68" t="n">
+        <v>89.83390327683777</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1785017294.973527</v>
+        <v>1812416359.759679</v>
       </c>
       <c r="F69" t="n">
-        <v>0.178826000414429</v>
+        <v>0.1600089273650654</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04000263901591949</v>
+        <v>0.03954281199514195</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2686286549.792706</v>
+        <v>3314416093.518704</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1004368513356797</v>
+        <v>0.07697676867004272</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03311231132658219</v>
+        <v>0.04428811637603485</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>41</v>
+      </c>
+      <c r="J70" t="n">
+        <v>280</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4494577377.301315</v>
+        <v>4398576262.715051</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1132518508637014</v>
+        <v>0.1662754484539065</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02774417583659397</v>
+        <v>0.02383034069420816</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>214</v>
+      </c>
+      <c r="J71" t="n">
+        <v>285</v>
+      </c>
+      <c r="K71" t="n">
+        <v>89.71192378713738</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2146889775.008757</v>
+        <v>1962801912.512131</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1065679088200606</v>
+        <v>0.08834942010142825</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03926616659879163</v>
+        <v>0.04695665982238995</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2823445170.260071</v>
+        <v>3469771808.024143</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06826089745291414</v>
+        <v>0.1045878877237819</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04883377603308914</v>
+        <v>0.03619723512864701</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2788270551.977713</v>
+        <v>3823293035.051339</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1511890667810226</v>
+        <v>0.1435548360708004</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03233812946864981</v>
+        <v>0.03399861557139659</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>285</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1680081958.404866</v>
+        <v>1704239745.889505</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1660300744491095</v>
+        <v>0.1295460192344468</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02586152698944648</v>
+        <v>0.03215710977602119</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4846779645.699729</v>
+        <v>4354752539.061474</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08860942098667403</v>
+        <v>0.09266955325249436</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03281923052391233</v>
+        <v>0.03265628439523985</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>133</v>
+      </c>
+      <c r="J76" t="n">
+        <v>285</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1720670496.199391</v>
+        <v>1893429365.098843</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1601135332726684</v>
+        <v>0.1567426127951661</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02483331865664674</v>
+        <v>0.02091319472877311</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4283311954.6499</v>
+        <v>3659087640.796151</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08678417000465666</v>
+        <v>0.08476644211924367</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04493652875722232</v>
+        <v>0.03630661045786655</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>142</v>
+      </c>
+      <c r="J78" t="n">
+        <v>284</v>
+      </c>
+      <c r="K78" t="n">
+        <v>74.43220484479512</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1416191227.819257</v>
+        <v>1924019035.185961</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1617812753324961</v>
+        <v>0.1318903905842374</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03936639991202003</v>
+        <v>0.03844764745712793</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5623461848.90841</v>
+        <v>5613062940.341003</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07562019579375635</v>
+        <v>0.1030717823261844</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02635885785878202</v>
+        <v>0.02373460962121173</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>139</v>
+      </c>
+      <c r="J80" t="n">
+        <v>285</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3905666783.433608</v>
+        <v>4688493260.771171</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1347187628378434</v>
+        <v>0.09638008772535876</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02932655880096275</v>
+        <v>0.02962905987111158</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>131</v>
+      </c>
+      <c r="J81" t="n">
+        <v>284</v>
+      </c>
+      <c r="K81" t="n">
+        <v>78.12180881283317</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5347928892.363476</v>
+        <v>4624189247.547626</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1542723493716125</v>
+        <v>0.185804883494695</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02332279527008383</v>
+        <v>0.02498765102612482</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>211</v>
+      </c>
+      <c r="J82" t="n">
+        <v>284</v>
+      </c>
+      <c r="K82" t="n">
+        <v>88.66960820258386</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2407803704.451762</v>
+        <v>2160615490.043583</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1286599599890771</v>
+        <v>0.1554671848804811</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03595435840037257</v>
+        <v>0.03267424116749029</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1814225323.753269</v>
+        <v>2008963624.920212</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08319068830939461</v>
+        <v>0.09361612112913259</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03922779431860254</v>
+        <v>0.03904117279327819</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2425898620.357749</v>
+        <v>2581606026.458362</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1152852537290944</v>
+        <v>0.1794805702729884</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04756501424691139</v>
+        <v>0.03729870290295811</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2136849082.432863</v>
+        <v>2587214358.891315</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1714942756210714</v>
+        <v>0.1711005343204448</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02265091627373885</v>
+        <v>0.02551670964282663</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1233717940.162832</v>
+        <v>922879562.615602</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1471208113731518</v>
+        <v>0.1552379366190321</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04073165407956839</v>
+        <v>0.04428614700496122</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3541,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2574566089.350546</v>
+        <v>2626789135.912094</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1638138881044779</v>
+        <v>0.1512916795049322</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02651218830426242</v>
+        <v>0.03256493193288783</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>284</v>
+      </c>
+      <c r="K88" t="n">
+        <v>42.2335403533048</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2844320142.700724</v>
+        <v>3239235484.311126</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09706603043853868</v>
+        <v>0.1360023690856987</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03555253090630384</v>
+        <v>0.03153931267992519</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1677106003.584787</v>
+        <v>1641784561.12944</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08445681874451824</v>
+        <v>0.1310612978133096</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0467054633255153</v>
+        <v>0.05298277634380885</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1319839677.912205</v>
+        <v>1437016324.306972</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1854921364500741</v>
+        <v>0.1435069310571665</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0414749830749782</v>
+        <v>0.04820303919903637</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2765034240.80403</v>
+        <v>2920694602.315948</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08620317295888309</v>
+        <v>0.06821187196463459</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04199909930780749</v>
+        <v>0.03245664455952647</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3724,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4425433284.963695</v>
+        <v>4462929655.992387</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1296313466384695</v>
+        <v>0.1049024679195668</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04818939942048399</v>
+        <v>0.03741207574469113</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>125</v>
+      </c>
+      <c r="J93" t="n">
+        <v>284</v>
+      </c>
+      <c r="K93" t="n">
+        <v>88.56667761243179</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2272917828.563049</v>
+        <v>1848643821.896829</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1048533191095604</v>
+        <v>0.1275902727411472</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04118203964288713</v>
+        <v>0.03795168809142749</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2698043785.80913</v>
+        <v>2315638052.238209</v>
       </c>
       <c r="F95" t="n">
-        <v>0.121457776288729</v>
+        <v>0.1145233162145737</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04800812401868782</v>
+        <v>0.04740001422691044</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1495519076.832006</v>
+        <v>2354332886.320096</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09130215702092064</v>
+        <v>0.1024843081498225</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04587667077583684</v>
+        <v>0.03468802421544647</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4826884311.988518</v>
+        <v>4410265522.794415</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1194648046880448</v>
+        <v>0.1260354547441661</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02721019289678438</v>
+        <v>0.02210093861581628</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>141</v>
+      </c>
+      <c r="J97" t="n">
+        <v>285</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3663251736.874809</v>
+        <v>3773571156.552672</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1065097413401637</v>
+        <v>0.1070692735417515</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03144555003773028</v>
+        <v>0.0297496229244991</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>68</v>
+      </c>
+      <c r="J98" t="n">
+        <v>285</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3307477950.178102</v>
+        <v>3404849484.644932</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1201330083712024</v>
+        <v>0.1093577421007218</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02596832825483709</v>
+        <v>0.0321079960406935</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4117117442.417949</v>
+        <v>3990655902.899771</v>
       </c>
       <c r="F100" t="n">
-        <v>0.115362041553812</v>
+        <v>0.1218682031697635</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0232922337506106</v>
+        <v>0.02564613268699245</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>121</v>
+      </c>
+      <c r="J100" t="n">
+        <v>285</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2902623905.407796</v>
+        <v>3380745875.608793</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1360451961813404</v>
+        <v>0.1950114276544937</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05858852343369781</v>
+        <v>0.05370590119321181</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
